--- a/Girassal.Web/wwwroot/templates/faturaResumed.xlsx
+++ b/Girassal.Web/wwwroot/templates/faturaResumed.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E487AE9-1178-4FE7-AEF7-FDA85751A815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CABB9AE-0BDD-45FD-BAA7-8386C2233BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatura" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>QUANTIDADE</t>
   </si>
   <si>
-    <t>MONTANTE</t>
-  </si>
-  <si>
     <t>Girasol</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>ESTADO</t>
+  </si>
+  <si>
+    <t>MONTANTE (Sem Iva)</t>
   </si>
 </sst>
 </file>
@@ -273,12 +273,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -286,6 +280,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -837,7 +837,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -845,7 +845,8 @@
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -853,11 +854,11 @@
     <row r="2" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -883,18 +884,18 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -910,45 +911,45 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>0</v>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="expression" dxfId="8" priority="34">
@@ -1003,128 +1004,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AssetExpire xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPFriendlyName xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <IntlLangReview xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">848664</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <SubmitterId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AcquiredFrom xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Complete</EditorialStatus>
-    <Markets xmlns="8289c1ac-6532-4c62-99f0-6d047703163c"/>
-    <OriginAsset xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AssetStart xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">2012-07-27T02:39:00+00:00</AssetStart>
-    <FriendlyTitle xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <MarketSpecific xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</MarketSpecific>
-    <TPNamespace xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Value>332603</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <UserInfo>
-        <DisplayName>REDMOND\v-sa</DisplayName>
-        <AccountId>2467</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <OpenTemplate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TaxCatchAll xmlns="8289c1ac-6532-4c62-99f0-6d047703163c"/>
-    <Manager xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <NumericId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <ParentAssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">english</OriginalSourceMarket>
-    <ApprovalStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">InProgress</ApprovalStatus>
-    <TPComponent xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <EditorialTags xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPExecutable xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <LocComments xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <SourceTitle xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <CSXUpdate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</CSXUpdate>
-    <IntlLocPriority xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AssetType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">TP</AssetType>
-    <MachineTranslated xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</MachineTranslated>
-    <OutputCachingOn xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</OutputCachingOn>
-    <TemplateStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Complete</TemplateStatus>
-    <IsSearchable xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</IsSearchable>
-    <ContentItem xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <ShowIn xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <UALocComments xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <UALocRecommendation xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <LegacyData xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <ClipArtFilename xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPApplication xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <CSXHash xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">english</DirectSourceMarket>
-    <PrimaryImageGen xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</PrimaryImageGen>
-    <PlannedPubDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <Downloads xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">0</Downloads>
-    <ArtSampleDocs xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TrustLevel xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <Providers xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Excel 2007 Default</TemplateTemplateType>
-    <TimesCloned xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <TPAppVersion xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <VoteCount xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <UACurrentWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <AssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">TP103107638</AssetId>
-    <TPClientViewer xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <DSATActionTaken xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <APEditor xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <OOCacheId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <IsDeleted xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</IsDeleted>
-    <PublishTargets xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <BugNumber xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <Milestone xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <OriginalRelease xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">15</OriginalRelease>
-    <RecommendationsModifier xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType encoding="utf-8"?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2162,20 +2047,134 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType encoding="utf-8"?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AssetExpire xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPFriendlyName xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <IntlLangReview xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">848664</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <SubmitterId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AcquiredFrom xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Complete</EditorialStatus>
+    <Markets xmlns="8289c1ac-6532-4c62-99f0-6d047703163c"/>
+    <OriginAsset xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AssetStart xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">2012-07-27T02:39:00+00:00</AssetStart>
+    <FriendlyTitle xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <MarketSpecific xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</MarketSpecific>
+    <TPNamespace xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Value>332603</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <UserInfo>
+        <DisplayName>REDMOND\v-sa</DisplayName>
+        <AccountId>2467</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <OpenTemplate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TaxCatchAll xmlns="8289c1ac-6532-4c62-99f0-6d047703163c"/>
+    <Manager xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <NumericId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <ParentAssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">english</OriginalSourceMarket>
+    <ApprovalStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">InProgress</ApprovalStatus>
+    <TPComponent xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <EditorialTags xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPExecutable xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <LocComments xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <SourceTitle xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <CSXUpdate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</CSXUpdate>
+    <IntlLocPriority xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AssetType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">TP</AssetType>
+    <MachineTranslated xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</MachineTranslated>
+    <OutputCachingOn xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</OutputCachingOn>
+    <TemplateStatus xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Complete</TemplateStatus>
+    <IsSearchable xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</IsSearchable>
+    <ContentItem xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <ShowIn xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <UALocComments xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <UALocRecommendation xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <LegacyData xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <ClipArtFilename xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPApplication xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <CSXHash xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">english</DirectSourceMarket>
+    <PrimaryImageGen xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">true</PrimaryImageGen>
+    <PlannedPubDate xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <Downloads xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">0</Downloads>
+    <ArtSampleDocs xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TrustLevel xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <Providers xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">Excel 2007 Default</TemplateTemplateType>
+    <TimesCloned xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <TPAppVersion xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <VoteCount xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <UACurrentWords xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <AssetId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">TP103107638</AssetId>
+    <TPClientViewer xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <DSATActionTaken xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <APEditor xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <OOCacheId xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <IsDeleted xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</IsDeleted>
+    <PublishTargets xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <BugNumber xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <Milestone xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <OriginalRelease xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">15</OriginalRelease>
+    <RecommendationsModifier xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="8289c1ac-6532-4c62-99f0-6d047703163c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="8289c1ac-6532-4c62-99f0-6d047703163c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FE0A537-2CE4-4F63-AAA6-BDE3C8E10941}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9AF64C7-C34D-4735-87E3-67F2A1E88198}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8289c1ac-6532-4c62-99f0-6d047703163c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2199,9 +2198,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9AF64C7-C34D-4735-87E3-67F2A1E88198}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FE0A537-2CE4-4F63-AAA6-BDE3C8E10941}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8289c1ac-6532-4c62-99f0-6d047703163c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Girassal.Web/wwwroot/templates/faturaResumed.xlsx
+++ b/Girassal.Web/wwwroot/templates/faturaResumed.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CABB9AE-0BDD-45FD-BAA7-8386C2233BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A0F260-1F80-4CD6-A1CD-7D7F39F108BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="2025" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatura" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <definedName name="bTelefoneVendedor">#REF!="ATIVAR"</definedName>
     <definedName name="bTermos">#REF!="ON"</definedName>
     <definedName name="bVendedor">#REF!="ATIVAR"</definedName>
-    <definedName name="EndereçoComprador">Fatura!$D$5</definedName>
-    <definedName name="EndereçoLocalidadeCódigoPostalComprador">Fatura!$D$6</definedName>
+    <definedName name="EndereçoComprador">Fatura!$E$5</definedName>
+    <definedName name="EndereçoLocalidadeCódigoPostalComprador">Fatura!$E$6</definedName>
     <definedName name="EndereçoLocalidadeCódigoPostalVendedor">Fatura!$A$6</definedName>
     <definedName name="EndereçoVendedor">Fatura!$A$5</definedName>
     <definedName name="fatDesc">Fatura!#REF!</definedName>
@@ -38,21 +38,21 @@
     <definedName name="fatNúmPacotes">Fatura!#REF!</definedName>
     <definedName name="fatTermos">Fatura!#REF!</definedName>
     <definedName name="fatVendedor">Fatura!#REF!</definedName>
-    <definedName name="FaxComprador">Fatura!$D$8</definedName>
+    <definedName name="FaxComprador">Fatura!$E$8</definedName>
     <definedName name="FaxVendedor">Fatura!$A$8</definedName>
-    <definedName name="NomeComprador">Fatura!$D$4</definedName>
+    <definedName name="NomeComprador">Fatura!$E$4</definedName>
     <definedName name="NomeVendedor">Fatura!$A$4</definedName>
     <definedName name="outro">Fatura!#REF!</definedName>
     <definedName name="Subtotal">Fatura!#REF!</definedName>
     <definedName name="TaxaImposto">Fatura!#REF!</definedName>
-    <definedName name="TelefoneComprador">Fatura!$D$7</definedName>
+    <definedName name="TelefoneComprador">Fatura!$E$7</definedName>
     <definedName name="TelefoneVendedor">Fatura!$A$7</definedName>
     <definedName name="TermosDeEnvio">#REF!</definedName>
     <definedName name="TotalGeral">Fatura!#REF!</definedName>
     <definedName name="TotalTaxas">Fatura!#REF!</definedName>
     <definedName name="Transportadora">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -90,7 +90,16 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>MONTANTE (Sem Iva)</t>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>VALOR DO IVA (17%)</t>
+  </si>
+  <si>
+    <t>VALOR (Sem Iva)</t>
+  </si>
+  <si>
+    <t>PREÇO (Com IVA)</t>
   </si>
 </sst>
 </file>
@@ -174,7 +183,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
@@ -182,7 +190,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="minor"/>
@@ -202,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -241,19 +248,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -273,19 +267,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -558,8 +546,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>858433</xdr:rowOff>
     </xdr:to>
@@ -834,164 +822,186 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>7</v>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E12:E13"/>
+  <mergeCells count="4">
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4">
+  <conditionalFormatting sqref="A4:B4">
     <cfRule type="expression" dxfId="8" priority="34">
       <formula>(NomeVendedor="")*bNomeVendedor</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="E4:G4">
     <cfRule type="expression" dxfId="7" priority="29">
       <formula>(NomeComprador="")*bNomeComprador</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
+  <conditionalFormatting sqref="A5:B5">
     <cfRule type="expression" dxfId="6" priority="10">
       <formula>(EndereçoVendedor="")*bEndereçoVendedor</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="expression" dxfId="5" priority="8">
       <formula>(EndereçoLocalidadeCódigoPostalVendedor="")*bCidadeVendedor</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" dxfId="4" priority="7">
       <formula>(TelefoneVendedor="")*bTelefoneVendedor</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>(FaxVendedor="")*bFaxVendedor</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="E5:G5">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>(EndereçoComprador="")*bEndereçoComprador</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="E6:G6">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>(EndereçoLocalidadeCódigoPostalComprador="")*bCidadeComprador</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D8">
+  <conditionalFormatting sqref="E7:G8">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>(TelefoneComprador="")*bTelefoneComprador</formula>
     </cfRule>

--- a/Girassal.Web/wwwroot/templates/faturaResumed.xlsx
+++ b/Girassal.Web/wwwroot/templates/faturaResumed.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A0F260-1F80-4CD6-A1CD-7D7F39F108BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3179E2-FABA-49AF-BC5D-6BACC5D3F299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2025" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatura" sheetId="1" r:id="rId1"/>
@@ -93,13 +93,13 @@
     <t>Codigo</t>
   </si>
   <si>
-    <t>VALOR DO IVA (17%)</t>
-  </si>
-  <si>
     <t>VALOR (Sem Iva)</t>
   </si>
   <si>
     <t>PREÇO (Com IVA)</t>
+  </si>
+  <si>
+    <t>VALOR DO IVA (16%)</t>
   </si>
 </sst>
 </file>
@@ -257,23 +257,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -824,8 +823,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -858,12 +857,12 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -887,24 +886,24 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -926,31 +925,31 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1014,15 +1013,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType encoding="utf-8"?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101005EB5FCBB1E5ECD4D83FA6E62BA4F98FF04003B76559807ED7042AFCC9CD6E0E16B7A" ma:contentTypeVersion="56" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bb8166288bc6583df760821a8465e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8289c1ac-6532-4c62-99f0-6d047703163c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72dad6d391a7c203314e0cd163637bed" ns2:_="">
     <xsd:import namespace="8289c1ac-6532-4c62-99f0-6d047703163c"/>
@@ -2056,6 +2046,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType encoding="utf-8"?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2182,14 +2181,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9AF64C7-C34D-4735-87E3-67F2A1E88198}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B69DBD35-2CA4-45CA-BCC5-A5388C7B721B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2207,6 +2198,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9AF64C7-C34D-4735-87E3-67F2A1E88198}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FE0A537-2CE4-4F63-AAA6-BDE3C8E10941}">
   <ds:schemaRefs>
